--- a/LINUX/Encode_Decode_Testing_Automation/Encode_Decode_Testing_Automation/AutomatedData_#2.xlsx
+++ b/LINUX/Encode_Decode_Testing_Automation/Encode_Decode_Testing_Automation/AutomatedData_#2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>Bit_8</t>
+  </si>
+  <si>
+    <t>UHD</t>
+  </si>
+  <si>
+    <t>H264</t>
+  </si>
+  <si>
+    <t>D3D11VA</t>
+  </si>
+  <si>
+    <t>Vulkan</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -106,7 +121,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +153,26 @@
         <fgColor rgb="FF008000" tint="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C4DE" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00" tint="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -151,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +195,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,7 +210,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -274,19 +313,19 @@
         <v>23</v>
       </c>
       <c r="J2" s="0">
-        <v>71</v>
+        <v>878</v>
       </c>
       <c r="K2" s="0">
-        <v>0</v>
+        <v>10.600000381469727</v>
       </c>
       <c r="L2" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -321,21 +360,2183 @@
         <v>23</v>
       </c>
       <c r="J3" s="0">
-        <v>82</v>
+        <v>1570</v>
       </c>
       <c r="K3" s="0">
-        <v>0</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="L3" s="0">
+        <v>9</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0">
+        <v>33</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="0">
+        <v>232</v>
+      </c>
+      <c r="K4" s="0">
+        <v>3.799999952316284</v>
+      </c>
+      <c r="L4" s="0">
+        <v>6</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0">
+        <v>17</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="M3" s="0">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0">
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="0">
+        <v>425</v>
+      </c>
+      <c r="K5" s="0">
+        <v>5.5</v>
+      </c>
+      <c r="L5" s="0">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0">
+        <v>18</v>
+      </c>
+      <c r="O5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="0">
+        <v>424</v>
+      </c>
+      <c r="K6" s="0">
+        <v>7</v>
+      </c>
+      <c r="L6" s="0">
+        <v>9</v>
+      </c>
+      <c r="M6" s="0">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0">
+        <v>33</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1569</v>
+      </c>
+      <c r="K7" s="0">
+        <v>9.5</v>
+      </c>
+      <c r="L7" s="0">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0">
+        <v>30</v>
+      </c>
+      <c r="O7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="0">
+        <v>845</v>
+      </c>
+      <c r="K8" s="0">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="L8" s="0">
+        <v>5</v>
+      </c>
+      <c r="M8" s="0">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0">
+        <v>33</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="0">
+        <v>210</v>
+      </c>
+      <c r="K9" s="0">
+        <v>91.5999984741211</v>
+      </c>
+      <c r="L9" s="0">
+        <v>7</v>
+      </c>
+      <c r="M9" s="0">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="0">
+        <v>892</v>
+      </c>
+      <c r="K10" s="0">
+        <v>9.5</v>
+      </c>
+      <c r="L10" s="0">
+        <v>9</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0">
+        <v>33</v>
+      </c>
+      <c r="O10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="0">
+        <v>237</v>
+      </c>
+      <c r="K11" s="0">
+        <v>7.300000190734863</v>
+      </c>
+      <c r="L11" s="0">
+        <v>13</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0">
+        <v>21</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="0">
+        <v>226</v>
+      </c>
+      <c r="K12" s="0">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="L12" s="0">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0">
+        <v>8</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="0">
+        <v>727</v>
+      </c>
+      <c r="K13" s="0">
+        <v>95.5</v>
+      </c>
+      <c r="L13" s="0">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="0">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="L14" s="0">
+        <v>14</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="0">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="L15" s="0">
+        <v>7</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="0">
+        <v>6</v>
+      </c>
+      <c r="L16" s="0">
+        <v>7</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="0">
+        <v>7.800000190734863</v>
+      </c>
+      <c r="L17" s="0">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0">
+        <v>0</v>
+      </c>
+      <c r="O17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="0">
+        <v>8.399999618530273</v>
+      </c>
+      <c r="L18" s="0">
+        <v>7</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="0">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="L19" s="0">
+        <v>21</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0">
+        <v>0</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="L20" s="0">
+        <v>26</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0">
+        <v>0</v>
+      </c>
+      <c r="O20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="0">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="L21" s="0">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0</v>
+      </c>
+      <c r="O21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="0">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="L22" s="0">
+        <v>6</v>
+      </c>
+      <c r="M22" s="0">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0">
+        <v>0</v>
+      </c>
+      <c r="O22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="L23" s="0">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0">
+        <v>0</v>
+      </c>
+      <c r="O23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="0">
+        <v>14.300000190734863</v>
+      </c>
+      <c r="L24" s="0">
+        <v>10</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0">
+        <v>0</v>
+      </c>
+      <c r="O24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="0">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="0">
+        <v>24.700000762939453</v>
+      </c>
+      <c r="L25" s="0">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0">
+        <v>0</v>
+      </c>
+      <c r="O25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="0">
+        <v>71</v>
+      </c>
+      <c r="K26" s="0">
+        <v>27.200000762939453</v>
+      </c>
+      <c r="L26" s="0">
+        <v>12</v>
+      </c>
+      <c r="M26" s="0">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0</v>
+      </c>
+      <c r="O26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="0">
+        <v>80</v>
+      </c>
+      <c r="K27" s="0">
+        <v>29</v>
+      </c>
+      <c r="L27" s="0">
+        <v>16</v>
+      </c>
+      <c r="M27" s="0">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0">
+        <v>0</v>
+      </c>
+      <c r="O27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="0">
+        <v>60</v>
+      </c>
+      <c r="K28" s="0">
+        <v>50.29999923706055</v>
+      </c>
+      <c r="L28" s="0">
+        <v>6</v>
+      </c>
+      <c r="M28" s="0">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0">
+        <v>0</v>
+      </c>
+      <c r="O28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="0">
+        <v>60</v>
+      </c>
+      <c r="K29" s="0">
+        <v>48.20000076293945</v>
+      </c>
+      <c r="L29" s="0">
+        <v>7</v>
+      </c>
+      <c r="M29" s="0">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0">
+        <v>0</v>
+      </c>
+      <c r="O29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="0">
+        <v>58</v>
+      </c>
+      <c r="K30" s="0">
+        <v>44.900001525878906</v>
+      </c>
+      <c r="L30" s="0">
+        <v>16</v>
+      </c>
+      <c r="M30" s="0">
+        <v>0</v>
+      </c>
+      <c r="N30" s="0">
+        <v>0</v>
+      </c>
+      <c r="O30" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="0">
+        <v>80</v>
+      </c>
+      <c r="K31" s="0">
+        <v>25</v>
+      </c>
+      <c r="L31" s="0">
+        <v>13</v>
+      </c>
+      <c r="M31" s="0">
+        <v>0</v>
+      </c>
+      <c r="N31" s="0">
+        <v>0</v>
+      </c>
+      <c r="O31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="0">
+        <v>718</v>
+      </c>
+      <c r="K32" s="0">
+        <v>88.19999694824219</v>
+      </c>
+      <c r="L32" s="0">
+        <v>4</v>
+      </c>
+      <c r="M32" s="0">
+        <v>0</v>
+      </c>
+      <c r="N32" s="0">
+        <v>0</v>
+      </c>
+      <c r="O32" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="0">
+        <v>214</v>
+      </c>
+      <c r="K33" s="0">
+        <v>94.69999694824219</v>
+      </c>
+      <c r="L33" s="0">
+        <v>27</v>
+      </c>
+      <c r="M33" s="0">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0">
+        <v>0</v>
+      </c>
+      <c r="O33" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="0">
+        <v>72</v>
+      </c>
+      <c r="K34" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="L34" s="0">
+        <v>11</v>
+      </c>
+      <c r="M34" s="0">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0">
+        <v>0</v>
+      </c>
+      <c r="O34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="0">
+        <v>63</v>
+      </c>
+      <c r="K35" s="0">
+        <v>50.900001525878906</v>
+      </c>
+      <c r="L35" s="0">
+        <v>17</v>
+      </c>
+      <c r="M35" s="0">
+        <v>0</v>
+      </c>
+      <c r="N35" s="0">
+        <v>0</v>
+      </c>
+      <c r="O35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="0">
+        <v>245</v>
+      </c>
+      <c r="K36" s="0">
+        <v>96.30000305175781</v>
+      </c>
+      <c r="L36" s="0">
+        <v>28</v>
+      </c>
+      <c r="M36" s="0">
+        <v>0</v>
+      </c>
+      <c r="N36" s="0">
+        <v>0</v>
+      </c>
+      <c r="O36" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="0">
+        <v>733</v>
+      </c>
+      <c r="K37" s="0">
+        <v>95.9000015258789</v>
+      </c>
+      <c r="L37" s="0">
+        <v>9</v>
+      </c>
+      <c r="M37" s="0">
+        <v>0</v>
+      </c>
+      <c r="N37" s="0">
+        <v>0</v>
+      </c>
+      <c r="O37" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="0">
+        <v>70</v>
+      </c>
+      <c r="K38" s="0">
+        <v>30.299999237060547</v>
+      </c>
+      <c r="L38" s="0">
+        <v>40</v>
+      </c>
+      <c r="M38" s="0">
+        <v>0</v>
+      </c>
+      <c r="N38" s="0">
+        <v>0</v>
+      </c>
+      <c r="O38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="0">
+        <v>79</v>
+      </c>
+      <c r="K39" s="0">
+        <v>29.700000762939453</v>
+      </c>
+      <c r="L39" s="0">
+        <v>30</v>
+      </c>
+      <c r="M39" s="0">
+        <v>0</v>
+      </c>
+      <c r="N39" s="0">
+        <v>0</v>
+      </c>
+      <c r="O39" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="0">
+        <v>61</v>
+      </c>
+      <c r="K40" s="0">
+        <v>51.70000076293945</v>
+      </c>
+      <c r="L40" s="0">
+        <v>33</v>
+      </c>
+      <c r="M40" s="0">
+        <v>0</v>
+      </c>
+      <c r="N40" s="0">
+        <v>0</v>
+      </c>
+      <c r="O40" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="0">
+        <v>61</v>
+      </c>
+      <c r="K41" s="0">
+        <v>55.20000076293945</v>
+      </c>
+      <c r="L41" s="0">
+        <v>31</v>
+      </c>
+      <c r="M41" s="0">
+        <v>0</v>
+      </c>
+      <c r="N41" s="0">
+        <v>0</v>
+      </c>
+      <c r="O41" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="0">
+        <v>69</v>
+      </c>
+      <c r="K42" s="0">
+        <v>47.099998474121094</v>
+      </c>
+      <c r="L42" s="0">
+        <v>5</v>
+      </c>
+      <c r="M42" s="0">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0">
+        <v>0</v>
+      </c>
+      <c r="O42" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="0">
+        <v>80</v>
+      </c>
+      <c r="K43" s="0">
+        <v>32.20000076293945</v>
+      </c>
+      <c r="L43" s="0">
+        <v>27</v>
+      </c>
+      <c r="M43" s="0">
+        <v>0</v>
+      </c>
+      <c r="N43" s="0">
+        <v>0</v>
+      </c>
+      <c r="O43" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="0">
+        <v>732</v>
+      </c>
+      <c r="K44" s="0">
+        <v>88.0999984741211</v>
+      </c>
+      <c r="L44" s="0">
+        <v>7</v>
+      </c>
+      <c r="M44" s="0">
+        <v>0</v>
+      </c>
+      <c r="N44" s="0">
+        <v>0</v>
+      </c>
+      <c r="O44" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="0">
+        <v>223</v>
+      </c>
+      <c r="K45" s="0">
+        <v>92.69999694824219</v>
+      </c>
+      <c r="L45" s="0">
+        <v>1</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0</v>
+      </c>
+      <c r="N45" s="0">
+        <v>0</v>
+      </c>
+      <c r="O45" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="0">
+        <v>69</v>
+      </c>
+      <c r="K46" s="0">
+        <v>28.399999618530273</v>
+      </c>
+      <c r="L46" s="0">
+        <v>1</v>
+      </c>
+      <c r="M46" s="0">
+        <v>0</v>
+      </c>
+      <c r="N46" s="0">
+        <v>0</v>
+      </c>
+      <c r="O46" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="0">
+        <v>53</v>
+      </c>
+      <c r="K47" s="0">
+        <v>46.29999923706055</v>
+      </c>
+      <c r="L47" s="0">
+        <v>2</v>
+      </c>
+      <c r="M47" s="0">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0">
+        <v>0</v>
+      </c>
+      <c r="O47" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="0">
+        <v>246</v>
+      </c>
+      <c r="K48" s="0">
+        <v>97.19999694824219</v>
+      </c>
+      <c r="L48" s="0">
+        <v>7</v>
+      </c>
+      <c r="M48" s="0">
+        <v>0</v>
+      </c>
+      <c r="N48" s="0">
+        <v>0</v>
+      </c>
+      <c r="O48" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="0">
+        <v>746</v>
+      </c>
+      <c r="K49" s="0">
+        <v>94.80000305175781</v>
+      </c>
+      <c r="L49" s="0">
+        <v>10</v>
+      </c>
+      <c r="M49" s="0">
+        <v>0</v>
+      </c>
+      <c r="N49" s="0">
+        <v>0</v>
+      </c>
+      <c r="O49" s="0">
         <v>0</v>
       </c>
     </row>
